--- a/src/testCase/c_useCase_file/initialize/自动化测试公共属性.xlsx
+++ b/src/testCase/c_useCase_file/initialize/自动化测试公共属性.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="157">
   <si>
     <t>关闭窗口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,12 +415,6 @@
     <t>不执行17</t>
   </si>
   <si>
-    <t>不执行18</t>
-  </si>
-  <si>
-    <t>不执行19</t>
-  </si>
-  <si>
     <t>不执行2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -473,84 +467,131 @@
     <t>执行9</t>
   </si>
   <si>
+    <t>警告；选择校核工况</t>
+  </si>
+  <si>
+    <t>警告；选择校核工况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告；选择校核工况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告；编辑工况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告；选择连接件参数Excel文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告；选择优化工况；错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告；选择校核工况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告；指定Excel模板文件路径</t>
+  </si>
+  <si>
+    <t>警告；指定bdf文件保存路径；指定载荷数据库保存路径</t>
+  </si>
+  <si>
+    <t>警告；选择f06文件；选择载荷数据库保存路径；确认另存为；载荷数据库制作工具</t>
+  </si>
+  <si>
+    <t>警告；选择材料许用值曲线；编辑材料许用值曲线</t>
+  </si>
+  <si>
+    <t>警告；选择优化工况</t>
+  </si>
+  <si>
+    <t>执行1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计变量--一维单元设计变量（截面尺寸）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告；提示；1D截面参数定义；铺层比定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计变量--一维单元设计变量（截面尺寸）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不执行2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不执行3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不执行2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行10</t>
+  </si>
+  <si>
+    <t>执行11</t>
+  </si>
+  <si>
+    <t>执行12</t>
+  </si>
+  <si>
+    <t>执行13</t>
+  </si>
+  <si>
+    <t>执行14</t>
+  </si>
+  <si>
+    <t>执行15</t>
+  </si>
+  <si>
+    <t>执行16</t>
+  </si>
+  <si>
+    <t>执行17</t>
+  </si>
+  <si>
+    <t>执行18</t>
+  </si>
+  <si>
+    <t>执行19</t>
+  </si>
+  <si>
     <t>不执行1</t>
-  </si>
-  <si>
-    <t>警告；选择校核工况</t>
-  </si>
-  <si>
-    <t>警告；选择校核工况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>警告；选择校核工况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>警告；编辑工况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>警告；选择连接件参数Excel文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>警告；选择优化工况；错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>警告；选择校核工况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>警告；指定Excel模板文件路径</t>
-  </si>
-  <si>
-    <t>警告；指定bdf文件保存路径；指定载荷数据库保存路径</t>
-  </si>
-  <si>
-    <t>警告；选择f06文件；选择载荷数据库保存路径；确认另存为；载荷数据库制作工具</t>
-  </si>
-  <si>
-    <t>警告；选择材料许用值曲线；编辑材料许用值曲线</t>
-  </si>
-  <si>
-    <t>警告；选择优化工况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>执行1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设计变量--一维单元设计变量（截面尺寸）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>警告；提示；1D截面参数定义；铺层比定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计变量--一维单元设计变量（截面尺寸）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不执行1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不执行1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,12 +624,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -681,7 +728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -704,9 +751,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -716,49 +760,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1067,207 +1126,263 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="48.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="22.375" style="9" customWidth="1"/>
     <col min="2" max="19" width="12.625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="12.625" style="13" customWidth="1"/>
-    <col min="21" max="21" width="14.75" style="17" customWidth="1"/>
+    <col min="20" max="20" width="12.625" style="11" customWidth="1"/>
+    <col min="21" max="21" width="14.75" style="14" customWidth="1"/>
     <col min="22" max="26" width="14.75" style="7" customWidth="1"/>
     <col min="27" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:21" s="21" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19"/>
-      <c r="B2" s="2" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="20"/>
+    </row>
+    <row r="2" spans="1:21" s="21" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="24"/>
+      <c r="B2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="19" t="str">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="20"/>
+    </row>
+    <row r="3" spans="1:21" s="21" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="24" t="str">
         <f t="shared" ref="A3" si="0">$B$2</f>
         <v>Aerobook-Aerocheck</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
-      <c r="B4" s="2" t="s">
+      <c r="L3" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="P3" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="U3" s="20"/>
+    </row>
+    <row r="4" spans="1:21" s="21" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="24"/>
+      <c r="B4" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="S4" s="14" t="s">
+      <c r="S4" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="T4" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="20" t="str">
+      <c r="U4" s="20"/>
+    </row>
+    <row r="5" spans="1:21" s="21" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="25" t="str">
         <f t="shared" ref="A5" si="1">$C$2</f>
         <v>Aerobook-Fiberbook</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="20"/>
+    </row>
+    <row r="6" spans="1:21" s="21" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+      <c r="B6" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="21"/>
-      <c r="B6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="7"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="20"/>
     </row>
     <row r="7" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="19" t="str">
+      <c r="A7" s="23" t="str">
         <f>$B$4</f>
         <v>铺层信息--铺层库优化</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>141</v>
+      <c r="B7" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>90</v>
@@ -1293,33 +1408,33 @@
       <c r="J7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="K7" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="M7" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="N7" s="18" t="s">
+      <c r="N7" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="O7" s="18" t="s">
+      <c r="O7" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="P7" s="18" t="s">
+      <c r="P7" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="Q7" s="18" t="s">
+      <c r="Q7" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="R7" s="18" t="s">
+      <c r="R7" s="15" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="2" t="s">
         <v>69</v>
       </c>
@@ -1373,15 +1488,15 @@
       </c>
     </row>
     <row r="9" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19" t="str">
+      <c r="A9" s="23" t="str">
         <f>$C$4</f>
         <v>铺层信息--铺层数据库制作工具</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>123</v>
+      <c r="B9" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>91</v>
@@ -1391,7 +1506,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="2" t="s">
         <v>69</v>
       </c>
@@ -1406,20 +1521,20 @@
       </c>
     </row>
     <row r="11" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="19" t="str">
+      <c r="A11" s="23" t="str">
         <f>$D$4</f>
         <v>尺寸信息--一维单元尺寸定义</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>123</v>
+      <c r="B11" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="T11" s="7"/>
     </row>
     <row r="12" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="19"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="2" t="s">
         <v>69</v>
       </c>
@@ -1428,20 +1543,20 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="19" t="str">
+      <c r="A13" s="23" t="str">
         <f>$E$4</f>
         <v>尺寸信息--二维单元尺寸定义</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>123</v>
+      <c r="B13" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T13" s="7"/>
     </row>
     <row r="14" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="19"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="2" t="s">
         <v>69</v>
       </c>
@@ -1450,25 +1565,25 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="19" t="str">
+      <c r="A15" s="23" t="str">
         <f>$F$4</f>
         <v>尺寸信息--一维单元尺寸定义（模板）</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>123</v>
+      <c r="B15" s="22" t="s">
+        <v>155</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="19"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="2" t="s">
         <v>69</v>
       </c>
@@ -1483,28 +1598,28 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="19" t="str">
+      <c r="A17" s="23" t="str">
         <f>$G$4</f>
         <v>尺寸信息--二维单元尺寸定义（模板）</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>123</v>
+      <c r="B17" s="22" t="s">
+        <v>155</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="19"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="2" t="s">
         <v>69</v>
       </c>
@@ -1522,22 +1637,22 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="19" t="str">
+      <c r="A19" s="23" t="str">
         <f>$H$4</f>
         <v>求解计算--求解计算</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>123</v>
+      <c r="B19" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="19"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="2" t="s">
         <v>69</v>
       </c>
@@ -1549,25 +1664,25 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="19" t="str">
+      <c r="A21" s="23" t="str">
         <f>$I$4</f>
         <v>载荷信息--载荷数据库制作工具</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>123</v>
+      <c r="B21" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="19"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="2" t="s">
         <v>69</v>
       </c>
@@ -1582,22 +1697,22 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="19" t="str">
+      <c r="A23" s="23" t="str">
         <f>$J$4</f>
         <v>载荷信息--编辑工况</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>123</v>
+      <c r="B23" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="19"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="2" t="s">
         <v>69</v>
       </c>
@@ -1609,19 +1724,19 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="19" t="str">
+      <c r="A25" s="23" t="str">
         <f>$K$4</f>
         <v>材料信息--定义复合材料参数</v>
       </c>
-      <c r="B25" s="12" t="s">
-        <v>123</v>
+      <c r="B25" s="22" t="s">
+        <v>156</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="19"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="2" t="s">
         <v>69</v>
       </c>
@@ -1630,19 +1745,19 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="19" t="str">
+      <c r="A27" s="23" t="str">
         <f>$L$4</f>
         <v>复材结构强度校核--复合材料强度校核1D</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>112</v>
+      <c r="B27" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="19"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="2" t="s">
         <v>69</v>
       </c>
@@ -1651,19 +1766,19 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="19" t="str">
+      <c r="A29" s="23" t="str">
         <f>$M$4</f>
         <v>复材结构强度校核--复合材料强度校核2D</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>112</v>
+      <c r="B29" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="19"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="2" t="s">
         <v>69</v>
       </c>
@@ -1672,34 +1787,34 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="19" t="str">
+      <c r="A31" s="23" t="str">
         <f>$N$4</f>
         <v>紧固件强度校核--紧固件信息输入</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>123</v>
+      <c r="B31" s="22" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="19"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="19" t="str">
+      <c r="A33" s="23" t="str">
         <f>$O$4</f>
         <v>紧固件强度校核--紧固件参数设置</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>112</v>
+      <c r="B33" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="19"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="2" t="s">
         <v>69</v>
       </c>
@@ -1708,19 +1823,19 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="19" t="str">
+      <c r="A35" s="23" t="str">
         <f>$P$4</f>
         <v>紧固件强度校核--紧固件强度校核</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>112</v>
+      <c r="B35" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="19"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="2" t="s">
         <v>69</v>
       </c>
@@ -1729,19 +1844,19 @@
       </c>
     </row>
     <row r="37" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="19" t="str">
+      <c r="A37" s="23" t="str">
         <f>$Q$4</f>
         <v>紧固件优化--紧固件参数优化</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>112</v>
+      <c r="B37" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="19"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="2" t="s">
         <v>69</v>
       </c>
@@ -1750,19 +1865,19 @@
       </c>
     </row>
     <row r="39" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="19" t="str">
+      <c r="A39" s="23" t="str">
         <f>$R$4</f>
         <v>材料信息--定义金属材料参数</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>112</v>
+      <c r="B39" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="19"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="2" t="s">
         <v>69</v>
       </c>
@@ -1771,19 +1886,19 @@
       </c>
     </row>
     <row r="41" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="19" t="str">
+      <c r="A41" s="23" t="str">
         <f>$S$4</f>
         <v>金属结构强度校核--金属一维单元强度校核</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>112</v>
+      <c r="B41" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="19"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="2" t="s">
         <v>69</v>
       </c>
@@ -1792,19 +1907,19 @@
       </c>
     </row>
     <row r="43" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="19" t="str">
+      <c r="A43" s="23" t="str">
         <f>$T$4</f>
         <v>金属结构强度校核--金属二维单元强度校核</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>112</v>
+      <c r="B43" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="19"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="2" t="s">
         <v>69</v>
       </c>
@@ -1813,71 +1928,79 @@
       </c>
     </row>
     <row r="45" spans="1:22" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="22" t="str">
+      <c r="A45" s="29" t="str">
         <f>$B$6</f>
         <v>优化设置--全局设置</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="T45" s="13"/>
-      <c r="U45" s="11"/>
-      <c r="V45" s="16"/>
+      <c r="B45" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="T45" s="11"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="13"/>
     </row>
     <row r="46" spans="1:22" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="22"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="T46" s="13"/>
-      <c r="U46" s="11"/>
-      <c r="V46" s="16"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="13"/>
     </row>
     <row r="47" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="25" t="str">
-        <f t="shared" ref="A47:A48" si="2">$C$6</f>
+      <c r="A47" s="27" t="str">
+        <f t="shared" ref="A47" si="2">$C$6</f>
         <v>设计变量--一维单元设计变量（截面尺寸）</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="15"/>
+      <c r="D47" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="12"/>
     </row>
     <row r="48" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="26"/>
-      <c r="B48" s="18" t="s">
+      <c r="A48" s="28"/>
+      <c r="B48" s="15" t="s">
         <v>69</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A41:A42"/>
     <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A1:A2"/>
@@ -1892,6 +2015,8 @@
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1914,7 +2039,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1985,7 +2110,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
@@ -2002,55 +2127,55 @@
         <v>24</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.15">
@@ -2080,7 +2205,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -2090,19 +2215,19 @@
         <v>29</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>138</v>
+      <c r="D2" s="17" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/src/testCase/c_useCase_file/initialize/自动化测试公共属性.xlsx
+++ b/src/testCase/c_useCase_file/initialize/自动化测试公共属性.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试模块控制" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="272">
   <si>
     <t>关闭窗口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,54 +136,541 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Aerobook-Fiberbook</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aerobook-Aerocheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸信息--二维单元尺寸定义</t>
+  </si>
+  <si>
+    <t>尺寸信息--一维单元尺寸定义（模板）</t>
+  </si>
+  <si>
+    <t>尺寸信息--二维单元尺寸定义（模板）</t>
+  </si>
+  <si>
+    <t>求解计算--求解计算</t>
+  </si>
+  <si>
+    <t>载荷信息--载荷数据库制作工具</t>
+  </si>
+  <si>
+    <t>载荷信息--编辑工况</t>
+  </si>
+  <si>
+    <t>材料信息--定义复合材料参数</t>
+  </si>
+  <si>
+    <t>复材结构强度校核--复合材料强度校核1D</t>
+  </si>
+  <si>
+    <t>复材结构强度校核--复合材料强度校核2D</t>
+  </si>
+  <si>
+    <t>铺层信息--铺层库优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层信息--铺层数据库制作工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸信息--一维单元尺寸定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属结构强度校核--金属一维单元强度校核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料信息--定义金属材料参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大铺层数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小铺层数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容差比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单层厚度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹性模量E11(MPa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹性模量E22（MPa）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泊松比v12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剪切模量G12（MPa）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层合板长度a(mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层合板宽度b(mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mat8材料ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径文本框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存为铺层数据库和保存为Excel勾选框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层库制作弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择铺层Excel文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层数据保存路径文本框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一维单元尺寸定义截面形状T型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维单元尺寸定义</t>
+  </si>
+  <si>
+    <t>选择铺层Excel文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层数据保存路径文本框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一维单元尺寸定义复合材料（模板）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一维单元尺寸定义金属材料（模板）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维单元尺寸定义金属材料（模板）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维单元尺寸定义金属材料（模板）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性更新选择路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>载荷提取选择路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>载荷数据库制作弹窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择载荷文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>载荷数据库保存路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重命名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化设置--全局设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不执行2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不执行3</t>
+  </si>
+  <si>
+    <t>不执行4</t>
+  </si>
+  <si>
+    <t>不执行5</t>
+  </si>
+  <si>
+    <t>不执行6</t>
+  </si>
+  <si>
+    <t>不执行7</t>
+  </si>
+  <si>
+    <t>不执行8</t>
+  </si>
+  <si>
+    <t>不执行9</t>
+  </si>
+  <si>
+    <t>不执行10</t>
+  </si>
+  <si>
+    <t>不执行11</t>
+  </si>
+  <si>
+    <t>不执行12</t>
+  </si>
+  <si>
+    <t>不执行13</t>
+  </si>
+  <si>
+    <t>不执行14</t>
+  </si>
+  <si>
+    <t>不执行15</t>
+  </si>
+  <si>
+    <t>不执行16</t>
+  </si>
+  <si>
+    <t>不执行17</t>
+  </si>
+  <si>
+    <t>不执行2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不执行2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不执行2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不执行2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不执行2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不执行2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行2</t>
+  </si>
+  <si>
+    <t>测试主模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行3</t>
+  </si>
+  <si>
+    <t>执行4</t>
+  </si>
+  <si>
+    <t>执行5</t>
+  </si>
+  <si>
+    <t>执行6</t>
+  </si>
+  <si>
+    <t>执行7</t>
+  </si>
+  <si>
+    <t>执行8</t>
+  </si>
+  <si>
+    <t>执行9</t>
+  </si>
+  <si>
+    <t>警告；选择校核工况</t>
+  </si>
+  <si>
+    <t>警告；选择校核工况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告；选择校核工况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告；编辑工况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告；选择连接件参数Excel文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告；选择优化工况；错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告；选择校核工况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告；指定Excel模板文件路径</t>
+  </si>
+  <si>
+    <t>警告；指定bdf文件保存路径；指定载荷数据库保存路径</t>
+  </si>
+  <si>
+    <t>警告；选择f06文件；选择载荷数据库保存路径；确认另存为；载荷数据库制作工具</t>
+  </si>
+  <si>
+    <t>警告；选择材料许用值曲线；编辑材料许用值曲线</t>
+  </si>
+  <si>
+    <t>警告；选择优化工况</t>
+  </si>
+  <si>
+    <t>执行1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计变量--一维单元设计变量（截面尺寸）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计变量--一维单元设计变量（截面尺寸）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不执行2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不执行3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行10</t>
+  </si>
+  <si>
+    <t>执行11</t>
+  </si>
+  <si>
+    <t>执行12</t>
+  </si>
+  <si>
+    <t>执行13</t>
+  </si>
+  <si>
+    <t>执行14</t>
+  </si>
+  <si>
+    <t>执行15</t>
+  </si>
+  <si>
+    <t>执行16</t>
+  </si>
+  <si>
+    <t>执行17</t>
+  </si>
+  <si>
+    <t>执行18</t>
+  </si>
+  <si>
+    <t>执行19</t>
+  </si>
+  <si>
+    <t>不执行1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不执行1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计变量--一维单元设计变量（截面积）</t>
+  </si>
+  <si>
+    <t>设计变量--一维单元设计变量（截面积）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告；提示；1D截面参数定义；铺层比定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>警告；提示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Aerobook-Fiberbook</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aerobook-Aerocheck</t>
+    <t>执行2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告；提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层信息--铺层库优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铺层信息--铺层数据库制作工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸信息--一维单元尺寸定义</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>尺寸信息--二维单元尺寸定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>尺寸信息--一维单元尺寸定义（模板）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>尺寸信息--二维单元尺寸定义（模板）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>求解计算--求解计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>载荷信息--载荷数据库制作工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>载荷信息--编辑工况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>材料信息--定义复合材料参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料信息--定义金属材料参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>复材结构强度校核--复合材料强度校核1D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>复材结构强度校核--复合材料强度校核2D</t>
-  </si>
-  <si>
-    <t>铺层信息--铺层库优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铺层信息--铺层数据库制作工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尺寸信息--一维单元尺寸定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧固件强度校核--紧固件信息输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧固件强度校核--紧固件参数设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧固件强度校核--紧固件强度校核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧固件优化--紧固件参数优化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -191,94 +678,171 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>材料信息--定义金属材料参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大铺层数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小铺层数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铺层比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>容差比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单层厚度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹性模量E11(MPa)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹性模量E22（MPa）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泊松比v12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剪切模量G12（MPa）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>层合板长度a(mm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>层合板宽度b(mm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mat8材料ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路径文本框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存为铺层数据库和保存为Excel勾选框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铺层库制作弹窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择铺层Excel文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铺层数据保存路径文本框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一维单元尺寸定义截面形状T型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二维单元尺寸定义</t>
-  </si>
-  <si>
-    <t>选择铺层Excel文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铺层数据保存路径文本框</t>
+    <t>金属结构强度校核--金属二维单元强度校核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属结构强度校核--金属加筋板强度校核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属结构强度校核--金属曲板后驱曲强度校核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序初始化用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\initialize\自动化测试用例初始化.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Aerocheck\铺层信息\自动化铺层库优化.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Aerocheck\铺层信息\自动化铺层库制作工具弹窗.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Aerocheck\尺寸信息\自动化一维单元尺寸定义（模板）.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Aerocheck\尺寸信息\自动化二维单元尺寸定义（模板）.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Aerocheck\尺寸信息\自动化1D单元尺寸定义.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Aerocheck\尺寸信息\自动化2D单元尺寸定义.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Aerocheck\求解计算\自动化求解计算.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Aerocheck\载荷信息\自动化载荷数据库制作工具弹窗.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Aerocheck\载荷信息\自动化编辑工况.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Aerocheck\材料信息\自动化定义许用值.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Aerocheck\复材结构强度校核\自动化一维复合材料强度校核.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Aerocheck\复材结构强度校核\自动化二维复合材料强度校核.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Aerocheck\紧固件强度校核\自动化紧固件参数输入.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Aerocheck\紧固件强度校核\自动化连接件参数设置.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Aerocheck\紧固件强度校核\自动化紧固件强度校核.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Aerocheck\紧固件强度校核\自动化紧固件参数优化.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Aerocheck\金属结构强度校核\金属一维单元强度校核.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Aerocheck\金属结构强度校核\金属二维单元强度校核.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Aerocheck\金属结构强度校核\金属加筋板强度校核.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Aerocheck\金属结构强度校核\金属曲板后驱曲强度校核.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Aerocheck\材料信息\自动化定义金属材料参数.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序初始化用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化设置--全局设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计变量--一维单元设计变量（截面尺寸）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计变量--一维单元设计变量（截面积）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Fiberbook\全局设置\自动化全局设置.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Fiberbook\设置变量\一维单元设计参数（截面尺寸）.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Fiberbook\设置变量\一维单元设计变量（截面积）.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应变设计响应--二维单元应变耦合DRESP3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应变设计响应--二维单元应变耦合DRESP3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Fiberbook\应变设计响应\二维单元应变耦合DRESR3.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应变设计响应--二维单元应变耦合DRESP3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不执行1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计变量--二维单元设计参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计变量--二维单元设计参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计变量--二维单元设计参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Fiberbook\设置变量\二维单元设计参数.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -286,83 +850,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一维单元尺寸定义复合材料（模板）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一维单元尺寸定义金属材料（模板）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二维单元尺寸定义金属材料（模板）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二维单元尺寸定义金属材料（模板）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性更新选择路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>载荷提取选择路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>载荷数据库制作弹窗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择载荷文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>载荷数据库保存路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重命名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优化设置--全局设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试一</t>
+    <t>警告；提示；铺层厚度/铺层比定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应变设计响应--一维单元应变设计响应</t>
+  </si>
+  <si>
+    <t>应变设计响应--二维单元应变设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应变设计响应--二维单元应变设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应变设计响应--一维单元应变设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应变设计响应--一维单元应变设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应变设计响应--一维单元应变设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应变设计响应--二维单元应变设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应变设计响应--二维单元应变设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告；提示；错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告；提示；错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告；提示；错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -370,228 +901,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不执行3</t>
-  </si>
-  <si>
-    <t>不执行4</t>
-  </si>
-  <si>
-    <t>不执行5</t>
-  </si>
-  <si>
-    <t>不执行6</t>
-  </si>
-  <si>
-    <t>不执行7</t>
-  </si>
-  <si>
-    <t>不执行8</t>
-  </si>
-  <si>
-    <t>不执行9</t>
-  </si>
-  <si>
-    <t>不执行10</t>
-  </si>
-  <si>
-    <t>不执行11</t>
-  </si>
-  <si>
-    <t>不执行12</t>
-  </si>
-  <si>
-    <t>不执行13</t>
-  </si>
-  <si>
-    <t>不执行14</t>
-  </si>
-  <si>
-    <t>不执行15</t>
-  </si>
-  <si>
-    <t>不执行16</t>
-  </si>
-  <si>
-    <t>不执行17</t>
-  </si>
-  <si>
-    <t>不执行2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不执行2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不执行2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不执行2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不执行2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不执行2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行2</t>
-  </si>
-  <si>
-    <t>测试主模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行3</t>
-  </si>
-  <si>
-    <t>执行4</t>
-  </si>
-  <si>
-    <t>执行5</t>
-  </si>
-  <si>
-    <t>执行6</t>
-  </si>
-  <si>
-    <t>执行7</t>
-  </si>
-  <si>
-    <t>执行8</t>
-  </si>
-  <si>
-    <t>执行9</t>
-  </si>
-  <si>
-    <t>警告；选择校核工况</t>
-  </si>
-  <si>
-    <t>警告；选择校核工况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>警告；选择校核工况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>警告；编辑工况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>警告；选择连接件参数Excel文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>警告；选择优化工况；错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>警告；选择校核工况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>警告；指定Excel模板文件路径</t>
-  </si>
-  <si>
-    <t>警告；指定bdf文件保存路径；指定载荷数据库保存路径</t>
-  </si>
-  <si>
-    <t>警告；选择f06文件；选择载荷数据库保存路径；确认另存为；载荷数据库制作工具</t>
-  </si>
-  <si>
-    <t>警告；选择材料许用值曲线；编辑材料许用值曲线</t>
-  </si>
-  <si>
-    <t>警告；选择优化工况</t>
+    <t>src\testCase\c_useCase_file\Fiberbook\应变设计响应\一维单元应变设计响应.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Fiberbook\应变设计响应\二维单元应变设计响应.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应力设计响应-&gt;一维单元应力设计响应</t>
+  </si>
+  <si>
+    <t>应力设计响应-&gt;一维单元应力设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应力设计响应-&gt;二维单元应力设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应力设计响应-&gt;二维单元应力设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应力设计响应-&gt;二维单元应力设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Fiberbook\应力设计响应\一维单元应力设计响应.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Fiberbook\应力设计响应\二维单元应力设计响应.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不执行1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢成/厚度比设计响应--一维单元丢成/厚度比设计响应</t>
+  </si>
+  <si>
+    <t>丢成/厚度比设计响应--一维单元丢成/厚度比设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢成/厚度比设计响应--一维单元丢成/厚度比设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢成/厚度比设计响应--一维单元丢成/厚度比设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Fiberbook\丢成、厚度比设计响应\一维单元厚度设计响应.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢成/厚度比设计响应--二维单元丢成/厚度比设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Fiberbook\丢成、厚度比设计响应\二维单元厚度设计响应.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丢成/厚度比设计响应--二维单元丢成/厚度比设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化设置--泊松比匹配响应</t>
+  </si>
+  <si>
+    <t>优化设置--泊松比匹配响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化设置--泊松比匹配响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告；提示；错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Fiberbook\泊松比匹配响应\泊松比匹配响应.xlsx</t>
+  </si>
+  <si>
+    <t>刚度约束设计响应--位移设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>执行1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设计变量--一维单元设计变量（截面尺寸）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>警告；提示；1D截面参数定义；铺层比定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计变量--一维单元设计变量（截面尺寸）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不执行2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不执行3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不执行2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行10</t>
-  </si>
-  <si>
-    <t>执行11</t>
-  </si>
-  <si>
-    <t>执行12</t>
-  </si>
-  <si>
-    <t>执行13</t>
-  </si>
-  <si>
-    <t>执行14</t>
-  </si>
-  <si>
-    <t>执行15</t>
-  </si>
-  <si>
-    <t>执行16</t>
-  </si>
-  <si>
-    <t>执行17</t>
-  </si>
-  <si>
-    <t>执行18</t>
-  </si>
-  <si>
-    <t>执行19</t>
-  </si>
-  <si>
-    <t>不执行1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不执行1</t>
+    <t>刚度约束设计响应--位移设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚度约束设计响应--位移设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Fiberbook\刚度约束设计响应\位移约束设计响应.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚度约束设计响应--刚度比设计响应</t>
+  </si>
+  <si>
+    <t>刚度约束设计响应--刚度比设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Fiberbook\刚度约束设计响应\刚度比设计响应.xlsx</t>
+  </si>
+  <si>
+    <t>刚度约束设计响应--刚度比设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚度约束设计响应--位移设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机翼优化响应--梁腹板缘条厚度比设计响应</t>
+  </si>
+  <si>
+    <t>机翼优化响应--梁腹板缘条厚度比设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机翼优化响应--梁腹板缘条厚度比设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Fiberbook\机翼优化响应\梁腹板缘条厚度比设计响应.xlsx</t>
+  </si>
+  <si>
+    <t>机翼优化响应--梁腹板缘条厚度比设计响应</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -728,7 +1178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -742,83 +1192,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1124,885 +1595,1160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V48"/>
+  <dimension ref="A1:V74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="48.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="22.375" style="8" customWidth="1"/>
     <col min="2" max="19" width="12.625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="12.625" style="11" customWidth="1"/>
-    <col min="21" max="21" width="14.75" style="14" customWidth="1"/>
-    <col min="22" max="26" width="14.75" style="7" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="7"/>
+    <col min="20" max="20" width="12.625" style="10" customWidth="1"/>
+    <col min="21" max="21" width="14.75" style="13" customWidth="1"/>
+    <col min="22" max="26" width="14.75" style="6" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="21" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="20"/>
-    </row>
-    <row r="2" spans="1:21" s="21" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24"/>
-      <c r="B2" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="18" t="s">
+    <row r="1" spans="1:21" s="19" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="18"/>
+    </row>
+    <row r="2" spans="1:21" s="19" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="31"/>
+      <c r="B2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="20"/>
-    </row>
-    <row r="3" spans="1:21" s="21" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24" t="str">
+      <c r="C2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="18"/>
+    </row>
+    <row r="3" spans="1:21" s="19" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="31" t="str">
         <f t="shared" ref="A3" si="0">$B$2</f>
         <v>Aerobook-Aerocheck</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="B3" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="G3" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="H3" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="I3" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="J3" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="J3" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="N3" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="O3" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="P3" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="Q3" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="R3" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="S3" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="T3" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="R3" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="S3" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="T3" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="U3" s="20"/>
-    </row>
-    <row r="4" spans="1:21" s="21" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="24"/>
-      <c r="B4" s="18" t="s">
+      <c r="U3" s="18"/>
+    </row>
+    <row r="4" spans="1:21" s="19" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="31"/>
+      <c r="B4" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="R4" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="T4" s="18" t="s">
+      <c r="T4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="20"/>
-    </row>
-    <row r="5" spans="1:21" s="21" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="25" t="str">
+      <c r="U4" s="18"/>
+    </row>
+    <row r="5" spans="1:21" s="19" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="32" t="str">
         <f t="shared" ref="A5" si="1">$C$2</f>
         <v>Aerobook-Fiberbook</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="20"/>
-    </row>
-    <row r="6" spans="1:21" s="21" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="26"/>
-      <c r="B6" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="20"/>
+      <c r="B5" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="18"/>
+    </row>
+    <row r="6" spans="1:21" s="19" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="33"/>
+      <c r="B6" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="18"/>
     </row>
     <row r="7" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="23" t="str">
+      <c r="A7" s="29" t="str">
         <f>$B$4</f>
         <v>铺层信息--铺层库优化</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="L7" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="M7" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="M7" s="15" t="s">
+      <c r="N7" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="O7" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="P7" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="Q7" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="R7" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="R7" s="15" t="s">
-        <v>105</v>
-      </c>
     </row>
     <row r="8" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="23"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Q8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="9" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="23" t="str">
+      <c r="A9" s="29" t="str">
         <f>$C$4</f>
         <v>铺层信息--铺层数据库制作工具</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>156</v>
+      <c r="B9" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="10" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="23"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="11" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="23" t="str">
+      <c r="A11" s="29" t="str">
         <f>$D$4</f>
         <v>尺寸信息--一维单元尺寸定义</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>156</v>
+      <c r="B11" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="T11" s="7"/>
+        <v>106</v>
+      </c>
+      <c r="T11" s="6"/>
     </row>
     <row r="12" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="23"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="23" t="str">
+      <c r="A13" s="29" t="str">
         <f>$E$4</f>
         <v>尺寸信息--二维单元尺寸定义</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>156</v>
+      <c r="B13" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="T13" s="7"/>
+        <v>107</v>
+      </c>
+      <c r="T13" s="6"/>
     </row>
     <row r="14" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="23"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="23" t="str">
+      <c r="A15" s="29" t="str">
         <f>$F$4</f>
         <v>尺寸信息--一维单元尺寸定义（模板）</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>155</v>
+      <c r="B15" s="21" t="s">
+        <v>152</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="16" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="23"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="17" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="23" t="str">
+      <c r="A17" s="29" t="str">
         <f>$G$4</f>
         <v>尺寸信息--二维单元尺寸定义（模板）</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>155</v>
+      <c r="B17" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="18" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="23"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="19" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="23" t="str">
+      <c r="A19" s="29" t="str">
         <f>$H$4</f>
         <v>求解计算--求解计算</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>156</v>
+      <c r="B19" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>91</v>
+        <v>109</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="23"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="21" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="23" t="str">
+      <c r="A21" s="29" t="str">
         <f>$I$4</f>
         <v>载荷信息--载荷数据库制作工具</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>156</v>
+      <c r="B21" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="22" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="23"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="23" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="23" t="str">
+      <c r="A23" s="29" t="str">
         <f>$J$4</f>
         <v>载荷信息--编辑工况</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>156</v>
+      <c r="B23" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>91</v>
+        <v>108</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="23"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="25" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="23" t="str">
+      <c r="A25" s="29" t="str">
         <f>$K$4</f>
         <v>材料信息--定义复合材料参数</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>156</v>
+      <c r="B25" s="20" t="s">
+        <v>152</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="23"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="23" t="str">
+      <c r="A27" s="29" t="str">
         <f>$L$4</f>
         <v>复材结构强度校核--复合材料强度校核1D</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>110</v>
+      <c r="B27" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="23"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="23" t="str">
+      <c r="A29" s="29" t="str">
         <f>$M$4</f>
         <v>复材结构强度校核--复合材料强度校核2D</v>
       </c>
-      <c r="B29" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>110</v>
+      <c r="B29" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="23"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="23" t="str">
+      <c r="A31" s="29" t="str">
         <f>$N$4</f>
         <v>紧固件强度校核--紧固件信息输入</v>
       </c>
-      <c r="B31" s="22" t="s">
-        <v>156</v>
+      <c r="B31" s="20" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="23"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="23" t="str">
+      <c r="A33" s="29" t="str">
         <f>$O$4</f>
         <v>紧固件强度校核--紧固件参数设置</v>
       </c>
-      <c r="B33" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>110</v>
+      <c r="B33" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="23"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="23" t="str">
+      <c r="A35" s="29" t="str">
         <f>$P$4</f>
         <v>紧固件强度校核--紧固件强度校核</v>
       </c>
-      <c r="B35" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>110</v>
+      <c r="B35" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="23"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="23" t="str">
+      <c r="A37" s="29" t="str">
         <f>$Q$4</f>
         <v>紧固件优化--紧固件参数优化</v>
       </c>
-      <c r="B37" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>110</v>
+      <c r="B37" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="23"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="23" t="str">
+      <c r="A39" s="29" t="str">
         <f>$R$4</f>
         <v>材料信息--定义金属材料参数</v>
       </c>
-      <c r="B39" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>110</v>
+      <c r="B39" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="23"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="23" t="str">
+      <c r="A41" s="29" t="str">
         <f>$S$4</f>
         <v>金属结构强度校核--金属一维单元强度校核</v>
       </c>
-      <c r="B41" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>110</v>
+      <c r="B41" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="23"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="23" t="str">
+      <c r="A43" s="29" t="str">
         <f>$T$4</f>
         <v>金属结构强度校核--金属二维单元强度校核</v>
       </c>
-      <c r="B43" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>110</v>
+      <c r="B43" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="23"/>
+      <c r="A44" s="29"/>
       <c r="B44" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:22" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="29" t="str">
+      <c r="A45" s="30" t="str">
         <f>$B$6</f>
         <v>优化设置--全局设置</v>
       </c>
-      <c r="B45" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="T45" s="11"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="13"/>
+      <c r="B45" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="T45" s="10"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="12"/>
     </row>
     <row r="46" spans="1:22" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="29"/>
+      <c r="A46" s="30"/>
       <c r="B46" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="T46" s="11"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="13"/>
+        <v>88</v>
+      </c>
+      <c r="T46" s="10"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="12"/>
     </row>
     <row r="47" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="27" t="str">
         <f t="shared" ref="A47" si="2">$C$6</f>
         <v>设计变量--一维单元设计变量（截面尺寸）</v>
       </c>
-      <c r="B47" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="8"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
-      <c r="S47" s="8"/>
-      <c r="T47" s="12"/>
+      <c r="B47" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="11"/>
     </row>
     <row r="48" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="28"/>
-      <c r="B48" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>139</v>
+      <c r="B48" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="27" t="str">
+        <f>$D$6</f>
+        <v>设计变量--一维单元设计变量（截面积）</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="28"/>
+      <c r="B50" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="28"/>
+      <c r="B52" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="22"/>
+      <c r="S53" s="22"/>
+    </row>
+    <row r="54" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="28"/>
+      <c r="B54" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="22"/>
+      <c r="S54" s="22"/>
+    </row>
+    <row r="55" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="28"/>
+      <c r="B56" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="28"/>
+      <c r="B58" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="28"/>
+      <c r="B60" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="28"/>
+      <c r="B62" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="28"/>
+      <c r="B64" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="28"/>
+      <c r="B66" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="28"/>
+      <c r="B68" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="28"/>
+      <c r="B70" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="28"/>
+      <c r="B72" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="28"/>
+      <c r="B74" s="25" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A25:A26"/>
+  <mergeCells count="37">
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A7:A8"/>
@@ -2013,10 +2759,23 @@
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A53:A54"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A37:A38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2029,17 +2788,17 @@
   <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="12" customWidth="1"/>
-    <col min="3" max="23" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="23" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2110,7 +2869,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30"/>
+      <c r="A2" s="34"/>
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
@@ -2127,63 +2886,204 @@
         <v>24</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="N2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>23</v>
       </c>
       <c r="Q2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="T2" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="U2" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="35"/>
+      <c r="B4" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2193,46 +3093,239 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="4" width="13.125" customWidth="1"/>
+    <col min="2" max="21" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:23" s="24" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="30"/>
-      <c r="B2" s="2" t="s">
+      <c r="D1" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="25" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="34"/>
+      <c r="B2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>135</v>
-      </c>
+      <c r="C2" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="36" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+    </row>
+    <row r="4" spans="1:23" s="37" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="35"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="P4" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/testCase/c_useCase_file/initialize/自动化测试公共属性.xlsx
+++ b/src/testCase/c_useCase_file/initialize/自动化测试公共属性.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="测试模块控制" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="307">
   <si>
     <t>关闭窗口</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1042,6 +1042,139 @@
   </si>
   <si>
     <t>机翼优化响应--梁腹板缘条厚度比设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机翼优化响应--梁腹板缘条铺层比之差设计响应</t>
+  </si>
+  <si>
+    <t>机翼优化响应--梁腹板缘条铺层比之差设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机翼优化响应--梁腹板缘条铺层比之差设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Fiberbook\机翼优化响应\梁腹板缘条铺层比之差设计响应.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机翼优化响应--梁腹板缘条铺层比之差设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机翼优化响应--肋站位EI GJ设计响应</t>
+  </si>
+  <si>
+    <t>机翼优化响应--肋站位EI GJ设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Fiberbook\机翼优化响应\肋站位EI GJ设计响应.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机翼优化响应--肋站位EI GJ设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚度约束设计响应--扭转角约束设计响应</t>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Fiberbook\刚度约束设计响应\扭转角约束设计响应.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚度约束设计响应--扭转角约束设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚度约束设计响应--扭转角约束设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不执行1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定性设计响应--杆柱稳定性响应和约束</t>
+  </si>
+  <si>
+    <t>稳定性设计响应--杆柱稳定性响应和约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定性设计响应--杆柱稳定性响应和约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Fiberbook\稳定性设计响应\杆柱稳定性响应和约束.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定性设计响应--平板稳定性响应约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定性设计响应--平板稳定性响应约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定性设计响应--平板稳定性响应约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定性设计响应--平板稳定性响应约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Fiberbook\稳定性设计响应\平板稳定性设计响应.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定性设计响应--曲板稳定性响应约束</t>
+  </si>
+  <si>
+    <t>稳定性设计响应--曲板稳定性响应约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行20</t>
+  </si>
+  <si>
+    <t>稳定性设计响应--曲板稳定性响应约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定性设计响应--曲板稳定性响应约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Fiberbook\稳定性设计响应\曲板稳定性响应约束.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定性设计响应--加筋板稳定性响应约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行21</t>
+  </si>
+  <si>
+    <t>稳定性设计响应--加筋板稳定性响应约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定性设计响应--加筋板稳定性响应约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定性设计响应--加筋板稳定性响应约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Fiberbook\稳定性设计响应\加筋板稳定性响应和约束.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1088,7 +1221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1174,11 +1307,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1192,9 +1367,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1202,9 +1374,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1219,35 +1388,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1273,23 +1433,35 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1595,1153 +1767,2391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V74"/>
+  <dimension ref="A1:W110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="48.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="24.625" style="7" customWidth="1"/>
     <col min="2" max="19" width="12.625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="12.625" style="10" customWidth="1"/>
-    <col min="21" max="21" width="14.75" style="13" customWidth="1"/>
-    <col min="22" max="26" width="14.75" style="6" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="6"/>
+    <col min="20" max="20" width="12.625" style="8" customWidth="1"/>
+    <col min="21" max="21" width="14.75" style="11" customWidth="1"/>
+    <col min="22" max="26" width="14.75" style="5" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="19" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:23" s="32" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="18"/>
-    </row>
-    <row r="2" spans="1:21" s="19" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="16" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="12"/>
+    </row>
+    <row r="2" spans="1:23" s="32" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="26"/>
+      <c r="B2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="18"/>
-    </row>
-    <row r="3" spans="1:21" s="19" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="31" t="str">
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="34"/>
+    </row>
+    <row r="3" spans="1:23" s="12" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="36" t="str">
         <f t="shared" ref="A3" si="0">$B$2</f>
         <v>Aerobook-Aerocheck</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="S3" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="U3" s="18"/>
-    </row>
-    <row r="4" spans="1:21" s="19" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="31"/>
-      <c r="B4" s="16" t="s">
+    </row>
+    <row r="4" spans="1:23" s="12" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="36"/>
+      <c r="B4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="Q4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="R4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="S4" s="17" t="s">
+      <c r="S4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="16" t="s">
+      <c r="T4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="18"/>
-    </row>
-    <row r="5" spans="1:21" s="19" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="32" t="str">
+    </row>
+    <row r="5" spans="1:23" s="12" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="36" t="str">
         <f t="shared" ref="A5" si="1">$C$2</f>
         <v>Aerobook-Fiberbook</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="P5" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="P5" s="16" t="s">
+      <c r="Q5" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="18"/>
-    </row>
-    <row r="6" spans="1:21" s="19" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="33"/>
-      <c r="B6" s="16" t="s">
+      <c r="R5" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="12" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="36"/>
+      <c r="B6" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="N6" s="16" t="s">
+      <c r="N6" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="O6" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="P6" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="Q6" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="18"/>
-    </row>
-    <row r="7" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="29" t="str">
+      <c r="R6" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="24" t="str">
         <f>$B$4</f>
         <v>铺层信息--铺层库优化</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="Q7" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="R7" s="14" t="s">
+      <c r="R7" s="6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="29"/>
-      <c r="B8" s="2" t="s">
+      <c r="S7" s="6"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="6"/>
+    </row>
+    <row r="8" spans="1:23" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="24"/>
+      <c r="B8" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="P8" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="Q8" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="R8" s="20" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="29" t="str">
+      <c r="S8" s="20"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="20"/>
+    </row>
+    <row r="9" spans="1:23" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="24" t="str">
         <f>$C$4</f>
         <v>铺层信息--铺层数据库制作工具</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="20" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="29"/>
-      <c r="B10" s="2" t="s">
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="20"/>
+    </row>
+    <row r="10" spans="1:23" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="24"/>
+      <c r="B10" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="20" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="29" t="str">
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="20"/>
+    </row>
+    <row r="11" spans="1:23" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="24" t="str">
         <f>$D$4</f>
         <v>尺寸信息--一维单元尺寸定义</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="T11" s="6"/>
-    </row>
-    <row r="12" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="29"/>
-      <c r="B12" s="2" t="s">
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="U11" s="20"/>
+    </row>
+    <row r="12" spans="1:23" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="24"/>
+      <c r="B12" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="20" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="29" t="str">
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="20"/>
+    </row>
+    <row r="13" spans="1:23" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="24" t="str">
         <f>$E$4</f>
         <v>尺寸信息--二维单元尺寸定义</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="T13" s="6"/>
-    </row>
-    <row r="14" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="29"/>
-      <c r="B14" s="2" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="U13" s="20"/>
+    </row>
+    <row r="14" spans="1:23" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="24"/>
+      <c r="B14" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="20" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="29" t="str">
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="20"/>
+    </row>
+    <row r="15" spans="1:23" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="24" t="str">
         <f>$F$4</f>
         <v>尺寸信息--一维单元尺寸定义（模板）</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="20" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="29"/>
-      <c r="B16" s="2" t="s">
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="20"/>
+    </row>
+    <row r="16" spans="1:23" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="24"/>
+      <c r="B16" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="20" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="29" t="str">
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="20"/>
+    </row>
+    <row r="17" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="24" t="str">
         <f>$G$4</f>
         <v>尺寸信息--二维单元尺寸定义（模板）</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="20" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="29"/>
-      <c r="B18" s="2" t="s">
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="20"/>
+    </row>
+    <row r="18" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="24"/>
+      <c r="B18" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="20" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="29" t="str">
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="20"/>
+    </row>
+    <row r="19" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="24" t="str">
         <f>$H$4</f>
         <v>求解计算--求解计算</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="20" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="29"/>
-      <c r="B20" s="2" t="s">
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="20"/>
+    </row>
+    <row r="20" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="24"/>
+      <c r="B20" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="20" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="29" t="str">
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="20"/>
+    </row>
+    <row r="21" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="24" t="str">
         <f>$I$4</f>
         <v>载荷信息--载荷数据库制作工具</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="20" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="29"/>
-      <c r="B22" s="2" t="s">
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="20"/>
+    </row>
+    <row r="22" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="24"/>
+      <c r="B22" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="20" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="29" t="str">
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="20"/>
+    </row>
+    <row r="23" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="24" t="str">
         <f>$J$4</f>
         <v>载荷信息--编辑工况</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="20" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="29"/>
-      <c r="B24" s="2" t="s">
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="20"/>
+    </row>
+    <row r="24" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="24"/>
+      <c r="B24" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="20" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="29" t="str">
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="20"/>
+    </row>
+    <row r="25" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="24" t="str">
         <f>$K$4</f>
         <v>材料信息--定义复合材料参数</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="20" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="29"/>
-      <c r="B26" s="2" t="s">
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="20"/>
+    </row>
+    <row r="26" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="24"/>
+      <c r="B26" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="20" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="29" t="str">
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="20"/>
+    </row>
+    <row r="27" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="24" t="str">
         <f>$L$4</f>
         <v>复材结构强度校核--复合材料强度校核1D</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="20" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="29"/>
-      <c r="B28" s="2" t="s">
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="20"/>
+    </row>
+    <row r="28" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="24"/>
+      <c r="B28" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="20" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="29" t="str">
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="20"/>
+    </row>
+    <row r="29" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="24" t="str">
         <f>$M$4</f>
         <v>复材结构强度校核--复合材料强度校核2D</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="20" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="29"/>
-      <c r="B30" s="2" t="s">
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="20"/>
+    </row>
+    <row r="30" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="24"/>
+      <c r="B30" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="20" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="29" t="str">
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="20"/>
+    </row>
+    <row r="31" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="24" t="str">
         <f>$N$4</f>
         <v>紧固件强度校核--紧固件信息输入</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="29"/>
-      <c r="B32" s="2" t="s">
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="20"/>
+    </row>
+    <row r="32" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="24"/>
+      <c r="B32" s="20" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="29" t="str">
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="20"/>
+    </row>
+    <row r="33" spans="1:22" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="24" t="str">
         <f>$O$4</f>
         <v>紧固件强度校核--紧固件参数设置</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="20" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="29"/>
-      <c r="B34" s="2" t="s">
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="20"/>
+    </row>
+    <row r="34" spans="1:22" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="24"/>
+      <c r="B34" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="20" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="29" t="str">
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="20"/>
+    </row>
+    <row r="35" spans="1:22" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="24" t="str">
         <f>$P$4</f>
         <v>紧固件强度校核--紧固件强度校核</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="20" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="29"/>
-      <c r="B36" s="2" t="s">
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="20"/>
+    </row>
+    <row r="36" spans="1:22" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="24"/>
+      <c r="B36" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="20" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="29" t="str">
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="20"/>
+    </row>
+    <row r="37" spans="1:22" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="24" t="str">
         <f>$Q$4</f>
         <v>紧固件优化--紧固件参数优化</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="20" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="29"/>
-      <c r="B38" s="2" t="s">
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="20"/>
+    </row>
+    <row r="38" spans="1:22" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="24"/>
+      <c r="B38" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="20" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="29" t="str">
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="20"/>
+    </row>
+    <row r="39" spans="1:22" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="24" t="str">
         <f>$R$4</f>
         <v>材料信息--定义金属材料参数</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="20" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="29"/>
-      <c r="B40" s="2" t="s">
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="20"/>
+    </row>
+    <row r="40" spans="1:22" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="24"/>
+      <c r="B40" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="20" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="29" t="str">
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="20"/>
+    </row>
+    <row r="41" spans="1:22" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="24" t="str">
         <f>$S$4</f>
         <v>金属结构强度校核--金属一维单元强度校核</v>
       </c>
       <c r="B41" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="20" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="29"/>
-      <c r="B42" s="2" t="s">
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="20"/>
+    </row>
+    <row r="42" spans="1:22" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="24"/>
+      <c r="B42" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="20" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="29" t="str">
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="20"/>
+    </row>
+    <row r="43" spans="1:22" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="24" t="str">
         <f>$T$4</f>
         <v>金属结构强度校核--金属二维单元强度校核</v>
       </c>
       <c r="B43" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="20" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="29"/>
-      <c r="B44" s="2" t="s">
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="20"/>
+    </row>
+    <row r="44" spans="1:22" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="24"/>
+      <c r="B44" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="20" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="30" t="str">
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="20"/>
+    </row>
+    <row r="45" spans="1:22" s="20" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="25" t="str">
         <f>$B$6</f>
         <v>优化设置--全局设置</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="T45" s="10"/>
-      <c r="U45" s="9"/>
-      <c r="V45" s="12"/>
-    </row>
-    <row r="46" spans="1:22" s="2" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="30"/>
-      <c r="B46" s="2" t="s">
+      <c r="T45" s="8"/>
+      <c r="V45" s="10"/>
+    </row>
+    <row r="46" spans="1:22" s="20" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="25"/>
+      <c r="B46" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="T46" s="10"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="12"/>
-    </row>
-    <row r="47" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="27" t="str">
+      <c r="T46" s="8"/>
+      <c r="V46" s="10"/>
+    </row>
+    <row r="47" spans="1:22" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="22" t="str">
         <f t="shared" ref="A47" si="2">$C$6</f>
         <v>设计变量--一维单元设计变量（截面尺寸）</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="7"/>
-      <c r="T47" s="11"/>
-    </row>
-    <row r="48" spans="1:22" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="28"/>
-      <c r="B48" s="14" t="s">
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="20"/>
+    </row>
+    <row r="48" spans="1:22" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="23"/>
+      <c r="B48" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="20" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="27" t="str">
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="20"/>
+    </row>
+    <row r="49" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="22" t="str">
         <f>$D$6</f>
         <v>设计变量--一维单元设计变量（截面积）</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="20" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="28"/>
-      <c r="B50" s="21" t="s">
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="20"/>
+    </row>
+    <row r="50" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="23"/>
+      <c r="B50" s="20" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="27" t="s">
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="20"/>
+    </row>
+    <row r="51" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="20" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="28"/>
-      <c r="B52" s="21" t="s">
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="20"/>
+    </row>
+    <row r="52" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="23"/>
+      <c r="B52" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="20" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="27" t="s">
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="20"/>
+    </row>
+    <row r="53" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="22"/>
-      <c r="S53" s="22"/>
-    </row>
-    <row r="54" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="28"/>
-      <c r="B54" s="23" t="s">
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="20"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="20"/>
+    </row>
+    <row r="54" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="23"/>
+      <c r="B54" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="22"/>
-      <c r="S54" s="22"/>
-    </row>
-    <row r="55" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="27" t="s">
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="20"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="20"/>
+    </row>
+    <row r="55" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="20" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="28"/>
-      <c r="B56" s="23" t="s">
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="20"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="20"/>
+    </row>
+    <row r="56" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="23"/>
+      <c r="B56" s="20" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="27" t="s">
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="20"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="20"/>
+    </row>
+    <row r="57" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="20" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="28"/>
-      <c r="B58" s="23" t="s">
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="20"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="20"/>
+    </row>
+    <row r="58" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="23"/>
+      <c r="B58" s="20" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="27" t="s">
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="20"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="20"/>
+    </row>
+    <row r="59" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="20" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="28"/>
-      <c r="B60" s="25" t="s">
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="20"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="20"/>
+    </row>
+    <row r="60" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="23"/>
+      <c r="B60" s="20" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="61" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="27" t="s">
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="20"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="20"/>
+    </row>
+    <row r="61" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="20" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="28"/>
-      <c r="B62" s="25" t="s">
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="20"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="20"/>
+    </row>
+    <row r="62" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="23"/>
+      <c r="B62" s="20" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="27" t="s">
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="20"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="20"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="20"/>
+    </row>
+    <row r="63" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="20" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="28"/>
-      <c r="B64" s="25" t="s">
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="20"/>
+    </row>
+    <row r="64" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="23"/>
+      <c r="B64" s="20" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="27" t="s">
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="20"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="20"/>
+    </row>
+    <row r="65" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="20" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="28"/>
-      <c r="B66" s="25" t="s">
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
+      <c r="O65" s="20"/>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="20"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="20"/>
+    </row>
+    <row r="66" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="23"/>
+      <c r="B66" s="20" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="27" t="s">
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="20"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="20"/>
+    </row>
+    <row r="67" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="B67" s="25" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="28"/>
-      <c r="B68" s="25" t="s">
+      <c r="B67" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="20"/>
+    </row>
+    <row r="68" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="23"/>
+      <c r="B68" s="20" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="27" t="s">
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="20"/>
+      <c r="O68" s="20"/>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="20"/>
+      <c r="T68" s="8"/>
+      <c r="U68" s="20"/>
+    </row>
+    <row r="69" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="20" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="23"/>
+      <c r="B70" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="23"/>
+      <c r="B72" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="20"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="20"/>
+      <c r="O73" s="20"/>
+      <c r="P73" s="20"/>
+      <c r="Q73" s="20"/>
+      <c r="R73" s="20"/>
+      <c r="S73" s="20"/>
+    </row>
+    <row r="74" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="23"/>
+      <c r="B74" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="20"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="20"/>
+      <c r="O74" s="20"/>
+      <c r="P74" s="20"/>
+      <c r="Q74" s="20"/>
+      <c r="R74" s="20"/>
+      <c r="S74" s="20"/>
+    </row>
+    <row r="75" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="23"/>
+      <c r="B76" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="23"/>
+      <c r="B78" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="31"/>
+      <c r="B80" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="31"/>
+      <c r="B82" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="B83" s="20" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="28"/>
-      <c r="B70" s="25" t="s">
+    <row r="84" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="31"/>
+      <c r="B84" s="20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="27" t="s">
-        <v>263</v>
-      </c>
-      <c r="B71" s="25" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="28"/>
-      <c r="B72" s="25" t="s">
+    <row r="85" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="29" t="s">
+        <v>299</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="31"/>
+      <c r="B86" s="20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="B73" s="25" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="28"/>
-      <c r="B74" s="25" t="s">
+    <row r="87" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="29" t="s">
+        <v>301</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="31"/>
+      <c r="B88" s="20" t="s">
         <v>68</v>
       </c>
     </row>
+    <row r="89" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="29"/>
+    </row>
+    <row r="90" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="30"/>
+    </row>
+    <row r="91" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="29"/>
+    </row>
+    <row r="92" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="30"/>
+    </row>
+    <row r="93" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="29"/>
+    </row>
+    <row r="94" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="30"/>
+    </row>
+    <row r="95" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="29"/>
+    </row>
+    <row r="96" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="30"/>
+    </row>
+    <row r="97" spans="1:1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="29"/>
+    </row>
+    <row r="98" spans="1:1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="30"/>
+    </row>
+    <row r="99" spans="1:1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="29"/>
+    </row>
+    <row r="100" spans="1:1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="30"/>
+    </row>
+    <row r="101" spans="1:1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="29"/>
+    </row>
+    <row r="102" spans="1:1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="30"/>
+    </row>
+    <row r="103" spans="1:1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="29"/>
+    </row>
+    <row r="104" spans="1:1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="30"/>
+    </row>
+    <row r="105" spans="1:1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="29"/>
+    </row>
+    <row r="106" spans="1:1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="30"/>
+    </row>
+    <row r="107" spans="1:1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="29"/>
+    </row>
+    <row r="108" spans="1:1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="30"/>
+    </row>
+    <row r="109" spans="1:1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="29"/>
+    </row>
+    <row r="110" spans="1:1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="30"/>
+    </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="55">
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A85:A86"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A76"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="A61:A62"/>
     <mergeCell ref="A63:A64"/>
@@ -2798,7 +4208,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2869,7 +4279,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
+      <c r="A2" s="27"/>
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
@@ -2938,7 +4348,7 @@
       </c>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="28" t="s">
         <v>159</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3009,7 +4419,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="35"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="4" t="s">
         <v>182</v>
       </c>
@@ -3093,123 +4503,166 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="21" width="15.5" customWidth="1"/>
+    <col min="22" max="35" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="24" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:24" s="14" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q1" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="R1" s="14" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" s="25" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="25" t="s">
+      <c r="S1" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="15" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="27"/>
+      <c r="B2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q2" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="R2" s="15" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" s="36" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="35" t="s">
+      <c r="S2" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="17" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="28" t="s">
         <v>159</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3224,7 +4677,7 @@
       <c r="E3" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="14" t="s">
         <v>216</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -3236,10 +4689,10 @@
       <c r="I3" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="14" t="s">
         <v>240</v>
       </c>
       <c r="L3" s="3" t="s">
@@ -3255,72 +4708,102 @@
         <v>266</v>
       </c>
       <c r="P3" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-    </row>
-    <row r="4" spans="1:23" s="37" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="35"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26" t="s">
+      <c r="S3" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="18" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="28"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="N4" s="26" t="s">
+      <c r="N4" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="O4" s="26" t="s">
+      <c r="O4" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="P4" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q4" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="Q4" s="26" t="s">
+      <c r="R4" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
+      <c r="S4" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="U4" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="V4" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="W4" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="X4" s="16" t="s">
+        <v>306</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/src/testCase/c_useCase_file/initialize/自动化测试公共属性.xlsx
+++ b/src/testCase/c_useCase_file/initialize/自动化测试公共属性.xlsx
@@ -993,188 +993,188 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>刚度约束设计响应--位移设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚度约束设计响应--位移设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Fiberbook\刚度约束设计响应\位移约束设计响应.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚度约束设计响应--刚度比设计响应</t>
+  </si>
+  <si>
+    <t>刚度约束设计响应--刚度比设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Fiberbook\刚度约束设计响应\刚度比设计响应.xlsx</t>
+  </si>
+  <si>
+    <t>刚度约束设计响应--刚度比设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚度约束设计响应--位移设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机翼优化响应--梁腹板缘条厚度比设计响应</t>
+  </si>
+  <si>
+    <t>机翼优化响应--梁腹板缘条厚度比设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机翼优化响应--梁腹板缘条厚度比设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Fiberbook\机翼优化响应\梁腹板缘条厚度比设计响应.xlsx</t>
+  </si>
+  <si>
+    <t>机翼优化响应--梁腹板缘条厚度比设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机翼优化响应--梁腹板缘条铺层比之差设计响应</t>
+  </si>
+  <si>
+    <t>机翼优化响应--梁腹板缘条铺层比之差设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机翼优化响应--梁腹板缘条铺层比之差设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Fiberbook\机翼优化响应\梁腹板缘条铺层比之差设计响应.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机翼优化响应--梁腹板缘条铺层比之差设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机翼优化响应--肋站位EI GJ设计响应</t>
+  </si>
+  <si>
+    <t>机翼优化响应--肋站位EI GJ设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Fiberbook\机翼优化响应\肋站位EI GJ设计响应.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机翼优化响应--肋站位EI GJ设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚度约束设计响应--扭转角约束设计响应</t>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Fiberbook\刚度约束设计响应\扭转角约束设计响应.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚度约束设计响应--扭转角约束设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚度约束设计响应--扭转角约束设计响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不执行1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定性设计响应--杆柱稳定性响应和约束</t>
+  </si>
+  <si>
+    <t>稳定性设计响应--杆柱稳定性响应和约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定性设计响应--杆柱稳定性响应和约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Fiberbook\稳定性设计响应\杆柱稳定性响应和约束.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定性设计响应--平板稳定性响应约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定性设计响应--平板稳定性响应约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定性设计响应--平板稳定性响应约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定性设计响应--平板稳定性响应约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Fiberbook\稳定性设计响应\平板稳定性设计响应.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定性设计响应--曲板稳定性响应约束</t>
+  </si>
+  <si>
+    <t>稳定性设计响应--曲板稳定性响应约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行20</t>
+  </si>
+  <si>
+    <t>稳定性设计响应--曲板稳定性响应约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定性设计响应--曲板稳定性响应约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Fiberbook\稳定性设计响应\曲板稳定性响应约束.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定性设计响应--加筋板稳定性响应约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行21</t>
+  </si>
+  <si>
+    <t>稳定性设计响应--加筋板稳定性响应约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定性设计响应--加筋板稳定性响应约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定性设计响应--加筋板稳定性响应约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src\testCase\c_useCase_file\Fiberbook\稳定性设计响应\加筋板稳定性响应和约束.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>执行1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刚度约束设计响应--位移设计响应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刚度约束设计响应--位移设计响应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>src\testCase\c_useCase_file\Fiberbook\刚度约束设计响应\位移约束设计响应.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刚度约束设计响应--刚度比设计响应</t>
-  </si>
-  <si>
-    <t>刚度约束设计响应--刚度比设计响应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>src\testCase\c_useCase_file\Fiberbook\刚度约束设计响应\刚度比设计响应.xlsx</t>
-  </si>
-  <si>
-    <t>刚度约束设计响应--刚度比设计响应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刚度约束设计响应--位移设计响应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机翼优化响应--梁腹板缘条厚度比设计响应</t>
-  </si>
-  <si>
-    <t>机翼优化响应--梁腹板缘条厚度比设计响应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机翼优化响应--梁腹板缘条厚度比设计响应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>src\testCase\c_useCase_file\Fiberbook\机翼优化响应\梁腹板缘条厚度比设计响应.xlsx</t>
-  </si>
-  <si>
-    <t>机翼优化响应--梁腹板缘条厚度比设计响应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机翼优化响应--梁腹板缘条铺层比之差设计响应</t>
-  </si>
-  <si>
-    <t>机翼优化响应--梁腹板缘条铺层比之差设计响应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机翼优化响应--梁腹板缘条铺层比之差设计响应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>src\testCase\c_useCase_file\Fiberbook\机翼优化响应\梁腹板缘条铺层比之差设计响应.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机翼优化响应--梁腹板缘条铺层比之差设计响应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机翼优化响应--肋站位EI GJ设计响应</t>
-  </si>
-  <si>
-    <t>机翼优化响应--肋站位EI GJ设计响应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>src\testCase\c_useCase_file\Fiberbook\机翼优化响应\肋站位EI GJ设计响应.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机翼优化响应--肋站位EI GJ设计响应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刚度约束设计响应--扭转角约束设计响应</t>
-  </si>
-  <si>
-    <t>src\testCase\c_useCase_file\Fiberbook\刚度约束设计响应\扭转角约束设计响应.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刚度约束设计响应--扭转角约束设计响应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刚度约束设计响应--扭转角约束设计响应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不执行1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稳定性设计响应--杆柱稳定性响应和约束</t>
-  </si>
-  <si>
-    <t>稳定性设计响应--杆柱稳定性响应和约束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稳定性设计响应--杆柱稳定性响应和约束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>src\testCase\c_useCase_file\Fiberbook\稳定性设计响应\杆柱稳定性响应和约束.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稳定性设计响应--平板稳定性响应约束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稳定性设计响应--平板稳定性响应约束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稳定性设计响应--平板稳定性响应约束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稳定性设计响应--平板稳定性响应约束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>src\testCase\c_useCase_file\Fiberbook\稳定性设计响应\平板稳定性设计响应.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稳定性设计响应--曲板稳定性响应约束</t>
-  </si>
-  <si>
-    <t>稳定性设计响应--曲板稳定性响应约束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行20</t>
-  </si>
-  <si>
-    <t>稳定性设计响应--曲板稳定性响应约束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稳定性设计响应--曲板稳定性响应约束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>src\testCase\c_useCase_file\Fiberbook\稳定性设计响应\曲板稳定性响应约束.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稳定性设计响应--加筋板稳定性响应约束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行21</t>
-  </si>
-  <si>
-    <t>稳定性设计响应--加筋板稳定性响应约束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稳定性设计响应--加筋板稳定性响应约束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>稳定性设计响应--加筋板稳定性响应约束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>src\testCase\c_useCase_file\Fiberbook\稳定性设计响应\加筋板稳定性响应和约束.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1353,7 +1353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1418,34 +1418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1460,8 +1433,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1769,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="J83" sqref="J83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="48.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1783,8 +1786,8 @@
     <col min="27" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="32" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:23" s="23" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="32" t="s">
         <v>112</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -1812,35 +1815,35 @@
       <c r="T1" s="13"/>
       <c r="U1" s="12"/>
     </row>
-    <row r="2" spans="1:23" s="32" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="34" t="s">
+    <row r="2" spans="1:23" s="23" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="32"/>
+      <c r="B2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="34"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="25"/>
     </row>
     <row r="3" spans="1:23" s="12" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="str">
+      <c r="A3" s="33" t="str">
         <f t="shared" ref="A3" si="0">$B$2</f>
         <v>Aerobook-Aerocheck</v>
       </c>
@@ -1903,7 +1906,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="12" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="36"/>
+      <c r="A4" s="33"/>
       <c r="B4" s="12" t="s">
         <v>41</v>
       </c>
@@ -1963,7 +1966,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" s="12" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="36" t="str">
+      <c r="A5" s="33" t="str">
         <f t="shared" ref="A5" si="1">$C$2</f>
         <v>Aerobook-Fiberbook</v>
       </c>
@@ -2028,14 +2031,14 @@
         <v>150</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="36"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="12" t="s">
         <v>87</v>
       </c>
@@ -2073,43 +2076,43 @@
         <v>254</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="24" t="str">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="34" t="str">
         <f>$B$4</f>
         <v>铺层信息--铺层库优化</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>152</v>
+        <v>306</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>89</v>
@@ -2163,8 +2166,8 @@
       <c r="T7" s="9"/>
       <c r="U7" s="6"/>
     </row>
-    <row r="8" spans="1:23" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="24"/>
+    <row r="8" spans="1:23" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="34"/>
       <c r="B8" s="20" t="s">
         <v>68</v>
       </c>
@@ -2220,13 +2223,13 @@
       <c r="T8" s="8"/>
       <c r="U8" s="20"/>
     </row>
-    <row r="9" spans="1:23" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="24" t="str">
+    <row r="9" spans="1:23" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="34" t="str">
         <f>$C$4</f>
         <v>铺层信息--铺层数据库制作工具</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>152</v>
+      <c r="B9" s="22" t="s">
+        <v>132</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>105</v>
@@ -2254,8 +2257,8 @@
       <c r="T9" s="8"/>
       <c r="U9" s="20"/>
     </row>
-    <row r="10" spans="1:23" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="24"/>
+    <row r="10" spans="1:23" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="34"/>
       <c r="B10" s="20" t="s">
         <v>68</v>
       </c>
@@ -2285,13 +2288,13 @@
       <c r="T10" s="8"/>
       <c r="U10" s="20"/>
     </row>
-    <row r="11" spans="1:23" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="24" t="str">
+    <row r="11" spans="1:23" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="34" t="str">
         <f>$D$4</f>
         <v>尺寸信息--一维单元尺寸定义</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>152</v>
+      <c r="B11" s="22" t="s">
+        <v>151</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>106</v>
@@ -2314,8 +2317,8 @@
       <c r="S11" s="20"/>
       <c r="U11" s="20"/>
     </row>
-    <row r="12" spans="1:23" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="24"/>
+    <row r="12" spans="1:23" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="34"/>
       <c r="B12" s="20" t="s">
         <v>68</v>
       </c>
@@ -2341,8 +2344,8 @@
       <c r="T12" s="8"/>
       <c r="U12" s="20"/>
     </row>
-    <row r="13" spans="1:23" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="24" t="str">
+    <row r="13" spans="1:23" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="34" t="str">
         <f>$E$4</f>
         <v>尺寸信息--二维单元尺寸定义</v>
       </c>
@@ -2370,8 +2373,8 @@
       <c r="S13" s="20"/>
       <c r="U13" s="20"/>
     </row>
-    <row r="14" spans="1:23" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="24"/>
+    <row r="14" spans="1:23" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="34"/>
       <c r="B14" s="20" t="s">
         <v>68</v>
       </c>
@@ -2397,8 +2400,8 @@
       <c r="T14" s="8"/>
       <c r="U14" s="20"/>
     </row>
-    <row r="15" spans="1:23" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="24" t="str">
+    <row r="15" spans="1:23" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="34" t="str">
         <f>$F$4</f>
         <v>尺寸信息--一维单元尺寸定义（模板）</v>
       </c>
@@ -2431,8 +2434,8 @@
       <c r="T15" s="8"/>
       <c r="U15" s="20"/>
     </row>
-    <row r="16" spans="1:23" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="24"/>
+    <row r="16" spans="1:23" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="34"/>
       <c r="B16" s="20" t="s">
         <v>68</v>
       </c>
@@ -2462,8 +2465,8 @@
       <c r="T16" s="8"/>
       <c r="U16" s="20"/>
     </row>
-    <row r="17" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="24" t="str">
+    <row r="17" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="34" t="str">
         <f>$G$4</f>
         <v>尺寸信息--二维单元尺寸定义（模板）</v>
       </c>
@@ -2498,8 +2501,8 @@
       <c r="T17" s="8"/>
       <c r="U17" s="20"/>
     </row>
-    <row r="18" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="24"/>
+    <row r="18" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="34"/>
       <c r="B18" s="20" t="s">
         <v>68</v>
       </c>
@@ -2531,8 +2534,8 @@
       <c r="T18" s="8"/>
       <c r="U18" s="20"/>
     </row>
-    <row r="19" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="24" t="str">
+    <row r="19" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="34" t="str">
         <f>$H$4</f>
         <v>求解计算--求解计算</v>
       </c>
@@ -2563,8 +2566,8 @@
       <c r="T19" s="8"/>
       <c r="U19" s="20"/>
     </row>
-    <row r="20" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="24"/>
+    <row r="20" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="34"/>
       <c r="B20" s="20" t="s">
         <v>68</v>
       </c>
@@ -2592,8 +2595,8 @@
       <c r="T20" s="8"/>
       <c r="U20" s="20"/>
     </row>
-    <row r="21" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="24" t="str">
+    <row r="21" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="34" t="str">
         <f>$I$4</f>
         <v>载荷信息--载荷数据库制作工具</v>
       </c>
@@ -2626,8 +2629,8 @@
       <c r="T21" s="8"/>
       <c r="U21" s="20"/>
     </row>
-    <row r="22" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="24"/>
+    <row r="22" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="34"/>
       <c r="B22" s="20" t="s">
         <v>68</v>
       </c>
@@ -2657,8 +2660,8 @@
       <c r="T22" s="8"/>
       <c r="U22" s="20"/>
     </row>
-    <row r="23" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="24" t="str">
+    <row r="23" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="34" t="str">
         <f>$J$4</f>
         <v>载荷信息--编辑工况</v>
       </c>
@@ -2689,8 +2692,8 @@
       <c r="T23" s="8"/>
       <c r="U23" s="20"/>
     </row>
-    <row r="24" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="24"/>
+    <row r="24" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="34"/>
       <c r="B24" s="20" t="s">
         <v>68</v>
       </c>
@@ -2718,8 +2721,8 @@
       <c r="T24" s="8"/>
       <c r="U24" s="20"/>
     </row>
-    <row r="25" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="24" t="str">
+    <row r="25" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="34" t="str">
         <f>$K$4</f>
         <v>材料信息--定义复合材料参数</v>
       </c>
@@ -2748,8 +2751,8 @@
       <c r="T25" s="8"/>
       <c r="U25" s="20"/>
     </row>
-    <row r="26" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="24"/>
+    <row r="26" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="34"/>
       <c r="B26" s="20" t="s">
         <v>68</v>
       </c>
@@ -2775,8 +2778,8 @@
       <c r="T26" s="8"/>
       <c r="U26" s="20"/>
     </row>
-    <row r="27" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="24" t="str">
+    <row r="27" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="34" t="str">
         <f>$L$4</f>
         <v>复材结构强度校核--复合材料强度校核1D</v>
       </c>
@@ -2805,8 +2808,8 @@
       <c r="T27" s="8"/>
       <c r="U27" s="20"/>
     </row>
-    <row r="28" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="24"/>
+    <row r="28" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="34"/>
       <c r="B28" s="20" t="s">
         <v>68</v>
       </c>
@@ -2832,8 +2835,8 @@
       <c r="T28" s="8"/>
       <c r="U28" s="20"/>
     </row>
-    <row r="29" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="24" t="str">
+    <row r="29" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="34" t="str">
         <f>$M$4</f>
         <v>复材结构强度校核--复合材料强度校核2D</v>
       </c>
@@ -2862,8 +2865,8 @@
       <c r="T29" s="8"/>
       <c r="U29" s="20"/>
     </row>
-    <row r="30" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="24"/>
+    <row r="30" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="34"/>
       <c r="B30" s="20" t="s">
         <v>68</v>
       </c>
@@ -2889,8 +2892,8 @@
       <c r="T30" s="8"/>
       <c r="U30" s="20"/>
     </row>
-    <row r="31" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="24" t="str">
+    <row r="31" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="34" t="str">
         <f>$N$4</f>
         <v>紧固件强度校核--紧固件信息输入</v>
       </c>
@@ -2917,8 +2920,8 @@
       <c r="T31" s="8"/>
       <c r="U31" s="20"/>
     </row>
-    <row r="32" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="24"/>
+    <row r="32" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="34"/>
       <c r="B32" s="20" t="s">
         <v>68</v>
       </c>
@@ -2942,8 +2945,8 @@
       <c r="T32" s="8"/>
       <c r="U32" s="20"/>
     </row>
-    <row r="33" spans="1:22" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="24" t="str">
+    <row r="33" spans="1:22" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="34" t="str">
         <f>$O$4</f>
         <v>紧固件强度校核--紧固件参数设置</v>
       </c>
@@ -2972,8 +2975,8 @@
       <c r="T33" s="8"/>
       <c r="U33" s="20"/>
     </row>
-    <row r="34" spans="1:22" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="24"/>
+    <row r="34" spans="1:22" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="34"/>
       <c r="B34" s="20" t="s">
         <v>68</v>
       </c>
@@ -2999,8 +3002,8 @@
       <c r="T34" s="8"/>
       <c r="U34" s="20"/>
     </row>
-    <row r="35" spans="1:22" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="24" t="str">
+    <row r="35" spans="1:22" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="34" t="str">
         <f>$P$4</f>
         <v>紧固件强度校核--紧固件强度校核</v>
       </c>
@@ -3029,8 +3032,8 @@
       <c r="T35" s="8"/>
       <c r="U35" s="20"/>
     </row>
-    <row r="36" spans="1:22" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="24"/>
+    <row r="36" spans="1:22" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="34"/>
       <c r="B36" s="20" t="s">
         <v>68</v>
       </c>
@@ -3056,8 +3059,8 @@
       <c r="T36" s="8"/>
       <c r="U36" s="20"/>
     </row>
-    <row r="37" spans="1:22" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="24" t="str">
+    <row r="37" spans="1:22" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="34" t="str">
         <f>$Q$4</f>
         <v>紧固件优化--紧固件参数优化</v>
       </c>
@@ -3086,8 +3089,8 @@
       <c r="T37" s="8"/>
       <c r="U37" s="20"/>
     </row>
-    <row r="38" spans="1:22" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="24"/>
+    <row r="38" spans="1:22" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="34"/>
       <c r="B38" s="20" t="s">
         <v>68</v>
       </c>
@@ -3113,8 +3116,8 @@
       <c r="T38" s="8"/>
       <c r="U38" s="20"/>
     </row>
-    <row r="39" spans="1:22" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="24" t="str">
+    <row r="39" spans="1:22" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="34" t="str">
         <f>$R$4</f>
         <v>材料信息--定义金属材料参数</v>
       </c>
@@ -3143,8 +3146,8 @@
       <c r="T39" s="8"/>
       <c r="U39" s="20"/>
     </row>
-    <row r="40" spans="1:22" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="24"/>
+    <row r="40" spans="1:22" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="34"/>
       <c r="B40" s="20" t="s">
         <v>68</v>
       </c>
@@ -3170,8 +3173,8 @@
       <c r="T40" s="8"/>
       <c r="U40" s="20"/>
     </row>
-    <row r="41" spans="1:22" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="24" t="str">
+    <row r="41" spans="1:22" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="34" t="str">
         <f>$S$4</f>
         <v>金属结构强度校核--金属一维单元强度校核</v>
       </c>
@@ -3200,8 +3203,8 @@
       <c r="T41" s="8"/>
       <c r="U41" s="20"/>
     </row>
-    <row r="42" spans="1:22" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="24"/>
+    <row r="42" spans="1:22" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="34"/>
       <c r="B42" s="20" t="s">
         <v>68</v>
       </c>
@@ -3227,8 +3230,8 @@
       <c r="T42" s="8"/>
       <c r="U42" s="20"/>
     </row>
-    <row r="43" spans="1:22" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="24" t="str">
+    <row r="43" spans="1:22" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="34" t="str">
         <f>$T$4</f>
         <v>金属结构强度校核--金属二维单元强度校核</v>
       </c>
@@ -3257,8 +3260,8 @@
       <c r="T43" s="8"/>
       <c r="U43" s="20"/>
     </row>
-    <row r="44" spans="1:22" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="24"/>
+    <row r="44" spans="1:22" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="34"/>
       <c r="B44" s="20" t="s">
         <v>68</v>
       </c>
@@ -3285,7 +3288,7 @@
       <c r="U44" s="20"/>
     </row>
     <row r="45" spans="1:22" s="20" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="25" t="str">
+      <c r="A45" s="35" t="str">
         <f>$B$6</f>
         <v>优化设置--全局设置</v>
       </c>
@@ -3296,15 +3299,15 @@
       <c r="V45" s="10"/>
     </row>
     <row r="46" spans="1:22" s="20" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="25"/>
+      <c r="A46" s="35"/>
       <c r="B46" s="20" t="s">
         <v>88</v>
       </c>
       <c r="T46" s="8"/>
       <c r="V46" s="10"/>
     </row>
-    <row r="47" spans="1:22" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="22" t="str">
+    <row r="47" spans="1:22" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="29" t="str">
         <f t="shared" ref="A47" si="2">$C$6</f>
         <v>设计变量--一维单元设计变量（截面尺寸）</v>
       </c>
@@ -3335,8 +3338,8 @@
       <c r="T47" s="9"/>
       <c r="U47" s="20"/>
     </row>
-    <row r="48" spans="1:22" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="23"/>
+    <row r="48" spans="1:22" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="30"/>
       <c r="B48" s="20" t="s">
         <v>68</v>
       </c>
@@ -3364,8 +3367,8 @@
       <c r="T48" s="8"/>
       <c r="U48" s="20"/>
     </row>
-    <row r="49" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="22" t="str">
+    <row r="49" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="29" t="str">
         <f>$D$6</f>
         <v>设计变量--一维单元设计变量（截面积）</v>
       </c>
@@ -3392,8 +3395,8 @@
       <c r="T49" s="8"/>
       <c r="U49" s="20"/>
     </row>
-    <row r="50" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="23"/>
+    <row r="50" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="30"/>
       <c r="B50" s="20" t="s">
         <v>68</v>
       </c>
@@ -3417,8 +3420,8 @@
       <c r="T50" s="8"/>
       <c r="U50" s="20"/>
     </row>
-    <row r="51" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="22" t="s">
+    <row r="51" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="29" t="s">
         <v>216</v>
       </c>
       <c r="B51" s="20" t="s">
@@ -3446,8 +3449,8 @@
       <c r="T51" s="8"/>
       <c r="U51" s="20"/>
     </row>
-    <row r="52" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="23"/>
+    <row r="52" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="30"/>
       <c r="B52" s="20" t="s">
         <v>220</v>
       </c>
@@ -3473,8 +3476,8 @@
       <c r="T52" s="8"/>
       <c r="U52" s="20"/>
     </row>
-    <row r="53" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="22" t="s">
+    <row r="53" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="29" t="s">
         <v>225</v>
       </c>
       <c r="B53" s="20" t="s">
@@ -3500,8 +3503,8 @@
       <c r="T53" s="8"/>
       <c r="U53" s="20"/>
     </row>
-    <row r="54" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="23"/>
+    <row r="54" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="30"/>
       <c r="B54" s="20" t="s">
         <v>68</v>
       </c>
@@ -3525,8 +3528,8 @@
       <c r="T54" s="8"/>
       <c r="U54" s="20"/>
     </row>
-    <row r="55" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="22" t="s">
+    <row r="55" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="29" t="s">
         <v>228</v>
       </c>
       <c r="B55" s="20" t="s">
@@ -3552,8 +3555,8 @@
       <c r="T55" s="8"/>
       <c r="U55" s="20"/>
     </row>
-    <row r="56" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="23"/>
+    <row r="56" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="30"/>
       <c r="B56" s="20" t="s">
         <v>68</v>
       </c>
@@ -3577,8 +3580,8 @@
       <c r="T56" s="8"/>
       <c r="U56" s="20"/>
     </row>
-    <row r="57" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="22" t="s">
+    <row r="57" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="29" t="s">
         <v>211</v>
       </c>
       <c r="B57" s="20" t="s">
@@ -3604,8 +3607,8 @@
       <c r="T57" s="8"/>
       <c r="U57" s="20"/>
     </row>
-    <row r="58" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="23"/>
+    <row r="58" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="30"/>
       <c r="B58" s="20" t="s">
         <v>68</v>
       </c>
@@ -3629,8 +3632,8 @@
       <c r="T58" s="8"/>
       <c r="U58" s="20"/>
     </row>
-    <row r="59" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="22" t="s">
+    <row r="59" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="29" t="s">
         <v>237</v>
       </c>
       <c r="B59" s="20" t="s">
@@ -3656,8 +3659,8 @@
       <c r="T59" s="8"/>
       <c r="U59" s="20"/>
     </row>
-    <row r="60" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="23"/>
+    <row r="60" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="30"/>
       <c r="B60" s="20" t="s">
         <v>68</v>
       </c>
@@ -3681,8 +3684,8 @@
       <c r="T60" s="8"/>
       <c r="U60" s="20"/>
     </row>
-    <row r="61" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="22" t="s">
+    <row r="61" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="29" t="s">
         <v>238</v>
       </c>
       <c r="B61" s="20" t="s">
@@ -3708,8 +3711,8 @@
       <c r="T61" s="8"/>
       <c r="U61" s="20"/>
     </row>
-    <row r="62" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="23"/>
+    <row r="62" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="30"/>
       <c r="B62" s="20" t="s">
         <v>68</v>
       </c>
@@ -3733,8 +3736,8 @@
       <c r="T62" s="8"/>
       <c r="U62" s="20"/>
     </row>
-    <row r="63" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="22" t="s">
+    <row r="63" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="29" t="s">
         <v>245</v>
       </c>
       <c r="B63" s="20" t="s">
@@ -3760,8 +3763,8 @@
       <c r="T63" s="8"/>
       <c r="U63" s="20"/>
     </row>
-    <row r="64" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="23"/>
+    <row r="64" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="30"/>
       <c r="B64" s="20" t="s">
         <v>68</v>
       </c>
@@ -3785,8 +3788,8 @@
       <c r="T64" s="8"/>
       <c r="U64" s="20"/>
     </row>
-    <row r="65" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="22" t="s">
+    <row r="65" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="29" t="s">
         <v>251</v>
       </c>
       <c r="B65" s="20" t="s">
@@ -3812,8 +3815,8 @@
       <c r="T65" s="8"/>
       <c r="U65" s="20"/>
     </row>
-    <row r="66" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="23"/>
+    <row r="66" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="30"/>
       <c r="B66" s="20" t="s">
         <v>68</v>
       </c>
@@ -3837,12 +3840,12 @@
       <c r="T66" s="8"/>
       <c r="U66" s="20"/>
     </row>
-    <row r="67" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="22" t="s">
+    <row r="67" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="29" t="s">
         <v>253</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C67" s="20"/>
       <c r="D67" s="20"/>
@@ -3864,8 +3867,8 @@
       <c r="T67" s="8"/>
       <c r="U67" s="20"/>
     </row>
-    <row r="68" spans="1:21" s="33" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="23"/>
+    <row r="68" spans="1:21" s="24" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="30"/>
       <c r="B68" s="20" t="s">
         <v>68</v>
       </c>
@@ -3890,39 +3893,39 @@
       <c r="U68" s="20"/>
     </row>
     <row r="69" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="22" t="s">
+      <c r="A69" s="29" t="s">
         <v>257</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="70" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="23"/>
+      <c r="A70" s="30"/>
       <c r="B70" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="22" t="s">
-        <v>283</v>
+      <c r="A71" s="29" t="s">
+        <v>282</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="72" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="23"/>
+      <c r="A72" s="30"/>
       <c r="B72" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="22" t="s">
-        <v>263</v>
+      <c r="A73" s="29" t="s">
+        <v>262</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C73" s="20"/>
       <c r="D73" s="20"/>
@@ -3943,7 +3946,7 @@
       <c r="S73" s="20"/>
     </row>
     <row r="74" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="23"/>
+      <c r="A74" s="30"/>
       <c r="B74" s="20" t="s">
         <v>68</v>
       </c>
@@ -3966,39 +3969,39 @@
       <c r="S74" s="20"/>
     </row>
     <row r="75" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="22" t="s">
-        <v>268</v>
+      <c r="A75" s="29" t="s">
+        <v>267</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="76" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="23"/>
+      <c r="A76" s="30"/>
       <c r="B76" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="22" t="s">
-        <v>273</v>
+      <c r="A77" s="29" t="s">
+        <v>272</v>
       </c>
       <c r="B77" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="78" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="23"/>
+      <c r="A78" s="30"/>
       <c r="B78" s="20" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="29" t="s">
-        <v>278</v>
+      <c r="A79" s="27" t="s">
+        <v>277</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="80" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4008,11 +4011,11 @@
       </c>
     </row>
     <row r="81" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="29" t="s">
-        <v>288</v>
+      <c r="A81" s="27" t="s">
+        <v>287</v>
       </c>
       <c r="B81" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4022,11 +4025,11 @@
       </c>
     </row>
     <row r="83" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="29" t="s">
-        <v>290</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>258</v>
+      <c r="A83" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4036,11 +4039,11 @@
       </c>
     </row>
     <row r="85" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="29" t="s">
-        <v>299</v>
+      <c r="A85" s="27" t="s">
+        <v>298</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4050,11 +4053,11 @@
       </c>
     </row>
     <row r="87" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="29" t="s">
-        <v>301</v>
+      <c r="A87" s="27" t="s">
+        <v>300</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4064,73 +4067,112 @@
       </c>
     </row>
     <row r="89" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="29"/>
+      <c r="A89" s="27"/>
     </row>
     <row r="90" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="30"/>
+      <c r="A90" s="28"/>
     </row>
     <row r="91" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="29"/>
+      <c r="A91" s="27"/>
     </row>
     <row r="92" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="30"/>
+      <c r="A92" s="28"/>
     </row>
     <row r="93" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="29"/>
+      <c r="A93" s="27"/>
     </row>
     <row r="94" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="30"/>
+      <c r="A94" s="28"/>
     </row>
     <row r="95" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="29"/>
+      <c r="A95" s="27"/>
     </row>
     <row r="96" spans="1:2" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="30"/>
+      <c r="A96" s="28"/>
     </row>
     <row r="97" spans="1:1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="29"/>
+      <c r="A97" s="27"/>
     </row>
     <row r="98" spans="1:1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="30"/>
+      <c r="A98" s="28"/>
     </row>
     <row r="99" spans="1:1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="29"/>
+      <c r="A99" s="27"/>
     </row>
     <row r="100" spans="1:1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="30"/>
+      <c r="A100" s="28"/>
     </row>
     <row r="101" spans="1:1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="29"/>
+      <c r="A101" s="27"/>
     </row>
     <row r="102" spans="1:1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="30"/>
+      <c r="A102" s="28"/>
     </row>
     <row r="103" spans="1:1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="29"/>
+      <c r="A103" s="27"/>
     </row>
     <row r="104" spans="1:1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="30"/>
+      <c r="A104" s="28"/>
     </row>
     <row r="105" spans="1:1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="29"/>
+      <c r="A105" s="27"/>
     </row>
     <row r="106" spans="1:1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="30"/>
+      <c r="A106" s="28"/>
     </row>
     <row r="107" spans="1:1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="29"/>
+      <c r="A107" s="27"/>
     </row>
     <row r="108" spans="1:1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="30"/>
+      <c r="A108" s="28"/>
     </row>
     <row r="109" spans="1:1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="29"/>
+      <c r="A109" s="27"/>
     </row>
     <row r="110" spans="1:1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="30"/>
+      <c r="A110" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A75:A76"/>
     <mergeCell ref="A107:A108"/>
     <mergeCell ref="A109:A110"/>
     <mergeCell ref="A73:A74"/>
@@ -4147,45 +4189,6 @@
     <mergeCell ref="A77:A78"/>
     <mergeCell ref="A79:A80"/>
     <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A37:A38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4198,7 +4201,7 @@
   <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4208,7 +4211,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -4279,7 +4282,7 @@
       </c>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
@@ -4348,7 +4351,7 @@
       </c>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="37" t="s">
         <v>159</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4419,7 +4422,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="28"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="4" t="s">
         <v>182</v>
       </c>
@@ -4516,7 +4519,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="14" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -4559,38 +4562,38 @@
         <v>252</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="S1" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T1" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="U1" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V1" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W1" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="X1" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="15" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="27"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="15" t="s">
         <v>28</v>
       </c>
@@ -4662,7 +4665,7 @@
       </c>
     </row>
     <row r="3" spans="1:24" s="17" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="37" t="s">
         <v>159</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -4705,38 +4708,38 @@
         <v>252</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="18" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="28"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16" t="s">
         <v>208</v>
@@ -4775,34 +4778,34 @@
         <v>256</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P4" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U4" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="V4" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="W4" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="X4" s="16" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
